--- a/CCCMI ideas.xlsx
+++ b/CCCMI ideas.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23405"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentdkit-my.sharepoint.com/personal/d00198805_student_dkit_ie/Documents/Microsoft Teams Chat Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="402" documentId="13_ncr:1_{78A80390-3E88-4EB4-9EDA-9408484D8B42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9C5B86D0-DDB9-41BC-9E27-76FB30CD6A62}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{834C8D63-957E-42F5-A6E5-53AAB8E8556F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ideas 1.0" sheetId="3" r:id="rId1"/>
-    <sheet name="idea" sheetId="1" r:id="rId2"/>
-    <sheet name="roles" sheetId="2" r:id="rId3"/>
+    <sheet name="Logos" sheetId="10" r:id="rId1"/>
+    <sheet name="further investigate" sheetId="4" r:id="rId2"/>
+    <sheet name="branch description" sheetId="6" r:id="rId3"/>
+    <sheet name="git commit rules" sheetId="7" r:id="rId4"/>
+    <sheet name="git command" sheetId="9" r:id="rId5"/>
+    <sheet name="ideas 1.0" sheetId="3" r:id="rId6"/>
+    <sheet name="idea" sheetId="1" r:id="rId7"/>
+    <sheet name="roles" sheetId="2" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +41,452 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="260">
+  <si>
+    <t>Aquality</t>
+  </si>
+  <si>
+    <t>Hardware part</t>
+  </si>
+  <si>
+    <t>Software part</t>
+  </si>
+  <si>
+    <t>DB</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Sensors</t>
+  </si>
+  <si>
+    <t>Necessary？</t>
+  </si>
+  <si>
+    <t>Buy From</t>
+  </si>
+  <si>
+    <t>Price (€)</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Control panel</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Column3</t>
+  </si>
+  <si>
+    <t>Cost Price</t>
+  </si>
+  <si>
+    <t>Column4</t>
+  </si>
+  <si>
+    <t>Column5</t>
+  </si>
+  <si>
+    <t>extra info/cost ?</t>
+  </si>
+  <si>
+    <t>Microcontroller</t>
+  </si>
+  <si>
+    <t>Arduino UNO</t>
+  </si>
+  <si>
+    <t>FREE (20€)</t>
+  </si>
+  <si>
+    <t>PH Sensor</t>
+  </si>
+  <si>
+    <t>DFRobot</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>cloud?Arduino IOT Cloud?Microsoft Azure(12 Months Free)?</t>
+  </si>
+  <si>
+    <t>Turbidity Sensor</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cable</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">/wifi? 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(connect control panel and receiver)</t>
+    </r>
+  </si>
+  <si>
+    <t>Water Flow Sensor</t>
+  </si>
+  <si>
+    <r>
+      <t>wifi/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SIM</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(reveiver sends data to server)</t>
+    </r>
+  </si>
+  <si>
+    <t>Water Level Sensor</t>
+  </si>
+  <si>
+    <t>Water Temperature Sensor</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>Dissolved Oxygen Sensor</t>
+  </si>
+  <si>
+    <t>TDS(Total Dissolved Solids) Sensor</t>
+  </si>
+  <si>
+    <t>ORP(Oxidation-Reduction Potential) Sensor</t>
+  </si>
+  <si>
+    <t>AI machine vision sensor</t>
+  </si>
+  <si>
+    <t>GPRS/GSM/GPS Module</t>
+  </si>
+  <si>
+    <t>Power Supply</t>
+  </si>
+  <si>
+    <t>Battery or Pow Bank?</t>
+  </si>
+  <si>
+    <t>D Cell Battery * 6</t>
+  </si>
+  <si>
+    <t>Battery Charger</t>
+  </si>
+  <si>
+    <t>Battery Holder * 6</t>
+  </si>
+  <si>
+    <t>Subtotal</t>
+  </si>
+  <si>
+    <t>Power Bank(INFINITY 2 PORTABLE SOLAR CHARGER)</t>
+  </si>
+  <si>
+    <t>Rise Travel</t>
+  </si>
+  <si>
+    <t>Type-B USB</t>
+  </si>
+  <si>
+    <t>Water Turbine Generator (Optional)</t>
+  </si>
+  <si>
+    <t>IP68/ IP67 Boxes ???</t>
+  </si>
+  <si>
+    <t>Pipes???</t>
+  </si>
+  <si>
+    <t>SIM card???GOMO??</t>
+  </si>
+  <si>
+    <t>Silicone Gel??</t>
+  </si>
+  <si>
+    <t>SocialDev</t>
+  </si>
+  <si>
+    <t>Camera</t>
+  </si>
+  <si>
+    <t>Phone/ Pad?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OS System ? </t>
+  </si>
+  <si>
+    <t>Open source/ libs
+ (git link?)</t>
+  </si>
+  <si>
+    <t>Networking knowledge</t>
+  </si>
+  <si>
+    <t>Branch</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Desc</t>
+  </si>
+  <si>
+    <t>master</t>
+  </si>
+  <si>
+    <t>Jing</t>
+  </si>
+  <si>
+    <t>CCCMI excel form, but master will not be default later</t>
+  </si>
+  <si>
+    <t>react-self-learning</t>
+  </si>
+  <si>
+    <t>Patrick</t>
+  </si>
+  <si>
+    <t>self-learning code on react</t>
+  </si>
+  <si>
+    <t>sprint1_flowChart</t>
+  </si>
+  <si>
+    <t>Wenyu</t>
+  </si>
+  <si>
+    <t>workflow for auqality and socialDev</t>
+  </si>
+  <si>
+    <t>sprint1_socialdev</t>
+  </si>
+  <si>
+    <t>Illya/patrick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Layout folder including student-side layout, teacher-side layout
+Logo folder including team logo </t>
+  </si>
+  <si>
+    <t>phase1_tunjing_opencv_selflearning</t>
+  </si>
+  <si>
+    <t>self-learning code on openCV</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When we start coding, please use the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tick number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> as branch name,
+ the tick number will be assigned in scrumwise </t>
+    </r>
+  </si>
+  <si>
+    <t>git commit rule</t>
+  </si>
+  <si>
+    <t>Key word</t>
+  </si>
+  <si>
+    <t>Desption</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>ui</t>
+  </si>
+  <si>
+    <t xml:space="preserve">any new components display on UI </t>
+  </si>
+  <si>
+    <t>ui_add primary button</t>
+  </si>
+  <si>
+    <t>style</t>
+  </si>
+  <si>
+    <t>any style changes on components</t>
+  </si>
+  <si>
+    <t>style_table height/width</t>
+  </si>
+  <si>
+    <t>feat</t>
+  </si>
+  <si>
+    <t>new functions</t>
+  </si>
+  <si>
+    <t>feat_show user name</t>
+  </si>
+  <si>
+    <t>fix</t>
+  </si>
+  <si>
+    <t>fix functional bugs</t>
+  </si>
+  <si>
+    <t>fix_can't pop login successful window</t>
+  </si>
+  <si>
+    <t>docs</t>
+  </si>
+  <si>
+    <t>README, .gitignore, liciences, 
+any changes in related docs</t>
+  </si>
+  <si>
+    <t>doc_add xx folder into gitignore</t>
+  </si>
+  <si>
+    <t>build</t>
+  </si>
+  <si>
+    <t>any changes in config file, dependencies</t>
+  </si>
+  <si>
+    <t>build_import xxx dep</t>
+  </si>
+  <si>
+    <t>refactor</t>
+  </si>
+  <si>
+    <t>only used in code refactoring</t>
+  </si>
+  <si>
+    <t>refactor_xxfile_check()</t>
+  </si>
+  <si>
+    <t>file</t>
+  </si>
+  <si>
+    <t>any new files into project folder</t>
+  </si>
+  <si>
+    <t>File_add index.html into view folder</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit test case </t>
+  </si>
+  <si>
+    <t>Test_xxx func</t>
+  </si>
+  <si>
+    <t>db</t>
+  </si>
+  <si>
+    <t>new table in DB, change fileds name, etc…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DB_table_new student table 
+DB_filed_student table_rename age as Age </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Git hook? </t>
+  </si>
+  <si>
+    <t>command</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>git clone</t>
+  </si>
+  <si>
+    <t>git clone &lt;https://name-of-the-repository-link&gt;</t>
+  </si>
+  <si>
+    <t>git branch</t>
+  </si>
   <si>
     <t>Idea</t>
   </si>
@@ -44,7 +494,7 @@
     <t>External?</t>
   </si>
   <si>
-    <t>Further infor</t>
+    <t>Further information</t>
   </si>
   <si>
     <t>Language</t>
@@ -53,13 +503,34 @@
     <t>Framework</t>
   </si>
   <si>
-    <t>End-user</t>
+    <t>Customer requirements</t>
+  </si>
+  <si>
+    <t>Function Requirements</t>
+  </si>
+  <si>
+    <t>Non-Function Requirements</t>
+  </si>
+  <si>
+    <t>Software And Hardware Needed?</t>
+  </si>
+  <si>
+    <t>Advantage and Disadvantage</t>
+  </si>
+  <si>
+    <t>Target End User and Customer</t>
+  </si>
+  <si>
+    <t>Problem May Meet</t>
   </si>
   <si>
     <t>Technical support?</t>
   </si>
   <si>
-    <t>Ambition(1-5)</t>
+    <t>Ranking(1-5)</t>
+  </si>
+  <si>
+    <t>sum</t>
   </si>
   <si>
     <t>Feasibility(1-5)</t>
@@ -68,13 +539,116 @@
     <t>Have a fun?(1-5)</t>
   </si>
   <si>
-    <t>Expression analyser</t>
+    <t>total</t>
   </si>
   <si>
     <t>N</t>
   </si>
   <si>
+    <t>Education and Social helper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Python for AI library / Android Studio for Mobile dev </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OpenCV / dlib / Android Studio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.the point system engage to play
+2.two student to interact with each other
+3.schedule to teacher(send notifications)
+4.navigation system
+5.select levels (Medium, High, Extreme)
+6.Lock sounds toggle
+7. Help disabled personnel socialise with others through app as they do not like human face-to-face interaction </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Point system engage to play
+2. Two student to interact with each other
+3. Schedule to teacher(send notifications)
+4. Navigation system
+5. Select levels (Medium, High, Extreme)
+6. Lock sounds toggle
+7. Camera take image and video
+8. Save any faces for later reference 
+9. Import image
+10. Body Recognition 
+11. Help with speech impairment 
+12. Vibrations / sound / animation to get attention of child </t>
+  </si>
+  <si>
+    <t xml:space="preserve">no flashlight, no strong images and sounds, simple navigation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Android IDE with emulator /mobile phone / tablet </t>
+  </si>
+  <si>
+    <t>Advantage: Would be helpful for personnal development and interesting to do
+Disadvantage: New languages and can be hard to cover all areas of disability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teachers in disablilty schools / parents of disabled children / person with disablity </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ethic problems with concern to disabled children and how to test with them. Categorize disability severity and control front end to suite different disability severities </t>
+  </si>
+  <si>
+    <t>The Eyegaze Edge idea for communication with eyes for SocialDev app (might be feature)</t>
+  </si>
+  <si>
+    <t>https://eyegaze.com/</t>
+  </si>
+  <si>
+    <t>Other area mentioned by customer</t>
+  </si>
+  <si>
     <t>Grober</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPS,
+tesco categories API(doesn't have API), gathering data using python?
+Start from small shops as suppliers.
+</t>
+  </si>
+  <si>
+    <t>JavaScript/ HTML /SQL</t>
+  </si>
+  <si>
+    <t>React Native / node.js</t>
+  </si>
+  <si>
+    <t>1. Able to Get Chocolate At 11 PM (TunJing)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Account system, top-up money into the APP 
+2.GPS Location: Able to track your order, people around the store get notified
+3. Shopping card
+4.Book time slot(collect )
+5.Notification system  
+6.Rating system
+Supplier:
+1.upload/update groceries images,or scan bar code directly ? </t>
+  </si>
+  <si>
+    <t>account secutity, 
+cookies(login status?),DB security
+Accurency for the GPS locator since need to find the customer</t>
+  </si>
+  <si>
+    <t>maybe the scanner for suppliers?</t>
+  </si>
+  <si>
+    <t>advantage: have few apps as reference(Tesco, just eat… )
+dis:  rat race between suppliers,how to resolve the problem?
+and also how to get a cake from tesco delivery?</t>
+  </si>
+  <si>
+    <t>shopper, shops, drivers</t>
+  </si>
+  <si>
+    <t>illegal data ,not easy to find a external supplier, bank transfer?
+ethical problem if the driver doing something illegel when arrive customer house
+how to confirm the driver actually delivered the Item and the Item is receive by customer(rating system????)</t>
   </si>
   <si>
     <t>Fish Tank water quality monitoring
@@ -84,15 +658,107 @@
     <t>Y</t>
   </si>
   <si>
+    <t xml:space="preserve">
+this a pastyear project in 2017
+https://mahara.dkit.ie/view/view.php?t=7lCmyveRgFJ1Dai5H8cL
+</t>
+  </si>
+  <si>
+    <t>Maybe C++/python/C</t>
+  </si>
+  <si>
+    <t>arduino?</t>
+  </si>
+  <si>
+    <t>to develop an application that helps determine water quality through the use of Insects so that
+it would be less confusing for the Citizen Scientists</t>
+  </si>
+  <si>
+    <t>1. Gather the data acurately
+2. Storing the Historical Data Of the Water Condition in db
+3. Calculate the water condition and Display
+4. Taking the photo clearly under water
+5. Create Client Side That can monitor the condition
+6. Scheduled SelfChecking for Water</t>
+  </si>
+  <si>
+    <t>1. waterproof?
+2. efficiency of the hardware
+3. cost of the hardware
+4. cost of maintainnence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arduino maybe
+</t>
+  </si>
+  <si>
+    <t>advantage:  Clear Goal
+Disadvantage: Totally new language to us</t>
+  </si>
+  <si>
+    <t>Centre for Freshwater and Environmental Studies (CFES)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">By looking at the pastyear project, I would like to do it become automate but don’t know the cost and problem maybe meet.
+hardware cannot sastified the needed
+</t>
+  </si>
+  <si>
+    <t>this is the document for aquality survey needed</t>
+  </si>
+  <si>
+    <t>https://atlanticsalmontrust.org/wp-content/uploads/2017/01/SMALL_STREAMS_-final-vAD10.pdf</t>
+  </si>
+  <si>
     <t>Site Management System</t>
   </si>
   <si>
+    <t>no manager, no mentor, hopeless, no mark</t>
+  </si>
+  <si>
+    <t>English for communication</t>
+  </si>
+  <si>
+    <t>24 frame per second for watching a India movie</t>
+  </si>
+  <si>
+    <t>1. Ask Eammon
+2. Ask Kevin</t>
+  </si>
+  <si>
+    <t>1. Able to communicate with Eammon
+2. Able to communicate with Kevin
+Wow Patrick fit it perfectly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Dont cost money
+</t>
+  </si>
+  <si>
+    <t>Patrick brain and hand is the hardware needed</t>
+  </si>
+  <si>
+    <t>Advantage: Football game is fun
+Disadvantage : Patrick will go crazy</t>
+  </si>
+  <si>
+    <t>Plant Site</t>
+  </si>
+  <si>
+    <t>You cannot catch the ball
+Do you?</t>
+  </si>
+  <si>
+    <t>dead project 0</t>
+  </si>
+  <si>
+    <t>tied of football game,
+just get rid of it   :( 1</t>
+  </si>
+  <si>
     <t>Illya</t>
   </si>
   <si>
-    <t>Wenyu</t>
-  </si>
-  <si>
     <t>Tunjing</t>
   </si>
   <si>
@@ -121,6 +787,9 @@
   </si>
   <si>
     <t>the rank of wishing to do</t>
+  </si>
+  <si>
+    <t>Expression analyser</t>
   </si>
   <si>
     <t>For autistic personnel to understand expression of others</t>
@@ -555,38 +1224,7 @@
 image recognition technique</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">By using the app, if you want to </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>get groceries from a selected store at home</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> for the next few hours anyone nearby the store will get to know your order and accept your order and </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">deliver to your house. </t>
-    </r>
+    <t xml:space="preserve">By using the app, if you want to get groceries from a selected store at home for the next few hours anyone nearby the store will get to know your order and accept your order and deliver to your house. </t>
   </si>
   <si>
     <r>
@@ -944,7 +1582,10 @@
     <t>Team Lead</t>
   </si>
   <si>
-    <t>Git lead/software tesing lead</t>
+    <t>Git lead/software testing lead</t>
+  </si>
+  <si>
+    <t>shiwenyv@gamil.com</t>
   </si>
   <si>
     <t>Ang, Tun Jing</t>
@@ -968,32 +1609,41 @@
     <t xml:space="preserve">Software testing </t>
   </si>
   <si>
+    <t>patricklee0221@gmail.com</t>
+  </si>
+  <si>
     <t>Liow, Ze Yan</t>
   </si>
   <si>
-    <t>Product owner</t>
+    <t>Hardwear engineer?</t>
   </si>
   <si>
     <t xml:space="preserve">Front-End develpoer </t>
   </si>
   <si>
+    <t>bryan.liow.zy@gmail.com</t>
+  </si>
+  <si>
     <t>Chaban (Mallon), Illya</t>
   </si>
   <si>
     <t>Back-End</t>
   </si>
   <si>
-    <t>Customer Liason</t>
+    <t>Customer Liason/Product owner</t>
   </si>
   <si>
     <t>illyamallon96@gmail.com</t>
+  </si>
+  <si>
+    <t>git link: https://github.com/cWenyu/CCCMI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1099,8 +1749,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF201F1E"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1150,8 +1829,32 @@
         <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1313,6 +2016,87 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1323,7 +2107,7 @@
     <xf numFmtId="0" fontId="10" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1387,39 +2171,124 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" xfId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" xfId="4"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="5" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1442,6 +2311,331 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>224789</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>127952</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B2D9D71-EE20-470C-878F-C9BB5B6796CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3272789" y="1226820"/>
+          <a:ext cx="2341563" cy="1798320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>169448</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17D344D9-6F67-489E-8A5B-5C52B6674958}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6027420" y="1181100"/>
+          <a:ext cx="1851660" cy="1914428"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>457201</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>173355</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>60959</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A4CBAF4-D6A6-4594-B644-90BE2926CDAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8382001" y="1203960"/>
+          <a:ext cx="2154554" cy="1783079"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>53339</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>72552</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00BE5FDE-ACB3-46FF-A39C-BC4A0166887D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="320040" y="784859"/>
+          <a:ext cx="2689859" cy="2579533"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>99580</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE2F0880-2D25-41CB-BD52-A2F9B73D2AA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10988040" y="1135380"/>
+          <a:ext cx="1913140" cy="1905000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152604</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>106839</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5144A00B-E417-491C-96FA-9C6BA51CEC18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3284220" y="3390900"/>
+          <a:ext cx="2354784" cy="1836579"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DC950F24-5CF1-4CDB-AF76-F18D5237E434}" name="Table1" displayName="Table1" ref="A2:Q27" totalsRowShown="0">
+  <autoFilter ref="A2:Q27" xr:uid="{48661A9B-0148-4F5E-A32C-939B9C8A5DA8}"/>
+  <tableColumns count="17">
+    <tableColumn id="1" xr3:uid="{D2FB88F3-CA6B-44B5-8ADE-52306240A388}" name="Hardware part"/>
+    <tableColumn id="2" xr3:uid="{EA97D662-F7B6-485C-8273-C8BE6159DD84}" name="Software part"/>
+    <tableColumn id="3" xr3:uid="{0A32371C-3828-4346-8F34-F5839B4FECD1}" name="DB"/>
+    <tableColumn id="4" xr3:uid="{BE874E90-03E3-4BBA-A6AB-0DB8FB4E6020}" name="Column1"/>
+    <tableColumn id="5" xr3:uid="{2162EDFA-3B37-42E2-81F8-FC89D840B978}" name="Sensors"/>
+    <tableColumn id="6" xr3:uid="{B6BF0776-D92A-4584-8A2E-14B806BB1A80}" name="Necessary？"/>
+    <tableColumn id="7" xr3:uid="{7DA3183F-424A-4618-A61C-E79B0FB8CAEB}" name="Buy From"/>
+    <tableColumn id="8" xr3:uid="{82A78E5D-8FFA-4C21-A70C-5524F655B0A2}" name="Price (€)"/>
+    <tableColumn id="9" xr3:uid="{D123A9A3-8B70-442B-BD2A-0A490588D573}" name="Column2"/>
+    <tableColumn id="10" xr3:uid="{0F86934F-245E-4126-82F4-25690B20EFDE}" name="Control panel"/>
+    <tableColumn id="11" xr3:uid="{51250527-C6D0-4546-AC46-B442A655B1F0}" name="Brand"/>
+    <tableColumn id="12" xr3:uid="{4E307F20-B331-4BAC-A6E0-A802D25282E9}" name="Price"/>
+    <tableColumn id="13" xr3:uid="{70EB2BD1-BC4C-4BD1-B43D-0AE2108568DA}" name="Column3"/>
+    <tableColumn id="14" xr3:uid="{4BE2246B-216E-480C-899D-2614B332E77D}" name="Cost Price"/>
+    <tableColumn id="15" xr3:uid="{0ECF9863-79AF-42CB-8B6B-F716C6CD9048}" name="Column4"/>
+    <tableColumn id="16" xr3:uid="{091CC555-005D-4954-8877-DC8225E0E831}" name="Column5"/>
+    <tableColumn id="17" xr3:uid="{A287C679-E333-464B-A8B0-CFDAE5F0A730}" name="extra info/cost ?"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1706,212 +2900,1514 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ABD36AA-D4C8-483C-A95B-DADF5621E657}">
-  <dimension ref="A1:V12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D7F76D3-3A42-403C-A555-5C3970B11469}">
+  <dimension ref="A1:X24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="24" width="8.85546875" style="64"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1" s="66"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" s="65"/>
+    </row>
+    <row r="11" spans="1:24" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="64"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="64"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="64"/>
+      <c r="N11" s="64"/>
+      <c r="O11" s="64"/>
+      <c r="P11" s="64"/>
+      <c r="Q11" s="64"/>
+      <c r="R11" s="64"/>
+      <c r="S11" s="64"/>
+      <c r="T11" s="64"/>
+      <c r="U11" s="64"/>
+      <c r="V11" s="64"/>
+      <c r="W11" s="64"/>
+      <c r="X11" s="64"/>
+    </row>
+    <row r="12" spans="1:24" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="64"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="64"/>
+      <c r="M12" s="64"/>
+      <c r="N12" s="64"/>
+      <c r="O12" s="64"/>
+      <c r="P12" s="64"/>
+      <c r="Q12" s="64"/>
+      <c r="R12" s="64"/>
+      <c r="S12" s="64"/>
+      <c r="T12" s="64"/>
+      <c r="U12" s="64"/>
+      <c r="V12" s="64"/>
+      <c r="W12" s="64"/>
+      <c r="X12" s="64"/>
+    </row>
+    <row r="23" spans="1:24" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="64"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="64"/>
+      <c r="L23" s="64"/>
+      <c r="M23" s="64"/>
+      <c r="N23" s="64"/>
+      <c r="O23" s="64"/>
+      <c r="P23" s="64"/>
+      <c r="Q23" s="64"/>
+      <c r="R23" s="64"/>
+      <c r="S23" s="64"/>
+      <c r="T23" s="64"/>
+      <c r="U23" s="64"/>
+      <c r="V23" s="64"/>
+      <c r="W23" s="64"/>
+      <c r="X23" s="64"/>
+    </row>
+    <row r="24" spans="1:24" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="64"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="64"/>
+      <c r="L24" s="64"/>
+      <c r="M24" s="64"/>
+      <c r="N24" s="64"/>
+      <c r="O24" s="64"/>
+      <c r="P24" s="64"/>
+      <c r="Q24" s="64"/>
+      <c r="R24" s="64"/>
+      <c r="S24" s="64"/>
+      <c r="T24" s="64"/>
+      <c r="U24" s="64"/>
+      <c r="V24" s="64"/>
+      <c r="W24" s="64"/>
+      <c r="X24" s="64"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F236C216-DC13-44C8-8B6A-5948EA5D43C7}">
+  <dimension ref="A1:Q31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="46.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="37.85546875" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.140625" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" customWidth="1"/>
+    <col min="10" max="10" width="23" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.7109375" customWidth="1"/>
+    <col min="12" max="12" width="19.28515625" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" customWidth="1"/>
+    <col min="16" max="16" width="10.140625" customWidth="1"/>
+    <col min="17" max="17" width="35.42578125" customWidth="1"/>
+    <col min="18" max="18" width="32" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="J3" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="Q3" s="1"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4">
+        <v>26</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5">
+        <v>9</v>
+      </c>
+      <c r="Q5" s="44" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6">
+        <v>8</v>
+      </c>
+      <c r="Q6" s="44" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="61"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="61"/>
+      <c r="H14" s="59"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="55">
+        <f>5.2*6</f>
+        <v>31.200000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" s="56">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="52"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" s="57">
+        <f>(2.5*6)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="61"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="59">
+        <f>SUM(H15:H17)</f>
+        <v>65.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="51"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" s="55">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="52"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20" s="57">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="61"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="59">
+        <f>SUM(H19:H20)</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="53"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="54">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I31" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD75056-D001-41D1-9B9F-A6C1DF0F7068}">
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" customWidth="1"/>
-    <col min="6" max="7" width="18.140625" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" customWidth="1"/>
-    <col min="9" max="9" width="9" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="38"/>
-    </row>
-    <row r="2" spans="1:22">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="30"/>
-    </row>
-    <row r="3" spans="1:22">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="26"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="28"/>
-      <c r="U3" s="29"/>
-      <c r="V3" s="30"/>
-    </row>
-    <row r="4" spans="1:22" ht="29.25" customHeight="1">
-      <c r="A4" s="23" t="s">
-        <v>13</v>
+        <v>65</v>
+      </c>
+      <c r="C3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="26"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="27"/>
-      <c r="T4" s="28"/>
-      <c r="U4" s="29"/>
-      <c r="V4" s="30"/>
-    </row>
-    <row r="5" spans="1:22">
+        <v>68</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="26"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="28"/>
-      <c r="U5" s="29"/>
-      <c r="V5" s="30"/>
-    </row>
-    <row r="8" spans="1:22">
-      <c r="A8" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="26"/>
-    </row>
-    <row r="9" spans="1:22">
-      <c r="A9" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="27"/>
-    </row>
-    <row r="10" spans="1:22">
-      <c r="A10" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="28"/>
-    </row>
-    <row r="11" spans="1:22">
-      <c r="A11" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="29"/>
-    </row>
-    <row r="12" spans="1:22">
-      <c r="A12" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="30"/>
+        <v>71</v>
+      </c>
+      <c r="C5" s="45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="67" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="67"/>
+      <c r="C15" s="67"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="67"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="67"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="67"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="67"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="48"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="48"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="48"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="R1:V1"/>
+  <mergeCells count="1">
+    <mergeCell ref="A15:C17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81B76AD6-8E27-45B0-8120-10492386DDCD}">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" style="46" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.5703125" style="46" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.42578125" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="46"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="47" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="47" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="47" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="47" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="47" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22AC5532-35B5-432A-972E-AD219ED26CB7}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ABD36AA-D4C8-483C-A95B-DADF5621E657}">
+  <dimension ref="A1:AF14"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="61.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="47.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="54.5703125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="61" style="2" customWidth="1"/>
+    <col min="13" max="13" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="8.7109375" style="2" customWidth="1"/>
+    <col min="19" max="19" width="8.7109375" style="40" customWidth="1"/>
+    <col min="20" max="24" width="8.7109375" style="2" customWidth="1"/>
+    <col min="25" max="25" width="8.7109375" style="40" customWidth="1"/>
+    <col min="26" max="32" width="8.7109375" style="2" customWidth="1"/>
+    <col min="33" max="16384" width="8.85546875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="N1" s="68" t="s">
+        <v>129</v>
+      </c>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="T1" s="71" t="s">
+        <v>131</v>
+      </c>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
+      <c r="W1" s="72"/>
+      <c r="X1" s="73"/>
+      <c r="Y1" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z1" s="71" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA1" s="72"/>
+      <c r="AB1" s="72"/>
+      <c r="AC1" s="72"/>
+      <c r="AD1" s="73"/>
+      <c r="AE1" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" ht="180" x14ac:dyDescent="0.25">
+      <c r="A2" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="J2" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="K2" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="L2" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="N2" s="26">
+        <v>4</v>
+      </c>
+      <c r="O2" s="27">
+        <v>4</v>
+      </c>
+      <c r="P2" s="28">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="29">
+        <v>3</v>
+      </c>
+      <c r="R2" s="30">
+        <v>4</v>
+      </c>
+      <c r="S2" s="39">
+        <f>SUM(N2:R2)</f>
+        <v>19</v>
+      </c>
+      <c r="T2" s="26">
+        <v>3</v>
+      </c>
+      <c r="U2" s="27">
+        <v>3</v>
+      </c>
+      <c r="V2" s="28">
+        <v>3</v>
+      </c>
+      <c r="W2" s="29">
+        <v>3</v>
+      </c>
+      <c r="X2" s="30">
+        <v>3</v>
+      </c>
+      <c r="Y2" s="39">
+        <f>SUM(T2:X2)</f>
+        <v>15</v>
+      </c>
+      <c r="Z2" s="26">
+        <v>3</v>
+      </c>
+      <c r="AA2" s="27">
+        <v>3</v>
+      </c>
+      <c r="AB2" s="28">
+        <v>3</v>
+      </c>
+      <c r="AC2" s="29">
+        <v>3</v>
+      </c>
+      <c r="AD2" s="30">
+        <v>3</v>
+      </c>
+      <c r="AE2" s="2">
+        <f>SUM(Z2:AD2)</f>
+        <v>15</v>
+      </c>
+      <c r="AF2" s="2">
+        <f>SUM(S2+Y2+AE2)</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="D3" s="25"/>
+      <c r="F3" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="28"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="39"/>
+      <c r="Z3" s="26"/>
+      <c r="AA3" s="27"/>
+      <c r="AB3" s="28"/>
+      <c r="AC3" s="29"/>
+      <c r="AD3" s="30"/>
+    </row>
+    <row r="4" spans="1:32" ht="161.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="J4" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="L4" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="N4" s="26">
+        <v>2</v>
+      </c>
+      <c r="O4" s="27">
+        <v>3</v>
+      </c>
+      <c r="P4" s="28">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="29">
+        <v>3</v>
+      </c>
+      <c r="R4" s="30">
+        <v>3</v>
+      </c>
+      <c r="S4" s="39">
+        <f t="shared" ref="S4:S5" si="0">SUM(N4:R4)</f>
+        <v>13</v>
+      </c>
+      <c r="T4" s="26">
+        <v>2</v>
+      </c>
+      <c r="U4" s="27">
+        <v>3</v>
+      </c>
+      <c r="V4" s="28">
+        <v>2</v>
+      </c>
+      <c r="W4" s="29">
+        <v>3</v>
+      </c>
+      <c r="X4" s="30">
+        <v>4</v>
+      </c>
+      <c r="Y4" s="39">
+        <f t="shared" ref="Y4:Y7" si="1">SUM(T4:X4)</f>
+        <v>14</v>
+      </c>
+      <c r="Z4" s="26">
+        <v>2</v>
+      </c>
+      <c r="AA4" s="27">
+        <v>2</v>
+      </c>
+      <c r="AB4" s="28">
+        <v>2</v>
+      </c>
+      <c r="AC4" s="29">
+        <v>3</v>
+      </c>
+      <c r="AD4" s="30">
+        <v>4</v>
+      </c>
+      <c r="AE4" s="2">
+        <f t="shared" ref="AE4:AE5" si="2">SUM(Z4:AD4)</f>
+        <v>13</v>
+      </c>
+      <c r="AF4" s="2">
+        <f t="shared" ref="AF4:AF7" si="3">SUM(S4+Y4+AE4)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" ht="120" x14ac:dyDescent="0.25">
+      <c r="A5" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="I5" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="J5" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="L5" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="N5" s="26">
+        <v>4</v>
+      </c>
+      <c r="O5" s="27">
+        <v>4</v>
+      </c>
+      <c r="P5" s="28">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="29">
+        <v>4</v>
+      </c>
+      <c r="R5" s="30">
+        <v>3</v>
+      </c>
+      <c r="S5" s="39">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="T5" s="26">
+        <v>3</v>
+      </c>
+      <c r="U5" s="27">
+        <v>3</v>
+      </c>
+      <c r="V5" s="28">
+        <v>2</v>
+      </c>
+      <c r="W5" s="29">
+        <v>3</v>
+      </c>
+      <c r="X5" s="30">
+        <v>4</v>
+      </c>
+      <c r="Y5" s="39">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="Z5" s="26">
+        <v>3</v>
+      </c>
+      <c r="AA5" s="27">
+        <v>4</v>
+      </c>
+      <c r="AB5" s="28">
+        <v>3</v>
+      </c>
+      <c r="AC5" s="29">
+        <v>4</v>
+      </c>
+      <c r="AD5" s="30">
+        <v>4</v>
+      </c>
+      <c r="AE5" s="2">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="AF5" s="2">
+        <f t="shared" si="3"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="F6" s="35"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="39"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="27"/>
+      <c r="V6" s="28"/>
+      <c r="W6" s="29"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="39"/>
+      <c r="Z6" s="26"/>
+      <c r="AA6" s="27"/>
+      <c r="AB6" s="28"/>
+      <c r="AC6" s="29"/>
+      <c r="AD6" s="30"/>
+    </row>
+    <row r="7" spans="1:32" ht="90" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="J7" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="L7" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="N7" s="26">
+        <v>3</v>
+      </c>
+      <c r="O7" s="27">
+        <v>2</v>
+      </c>
+      <c r="P7" s="28">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="R7" s="30">
+        <v>3</v>
+      </c>
+      <c r="S7" s="39">
+        <f>SUM(N7:R7)</f>
+        <v>11</v>
+      </c>
+      <c r="T7" s="26">
+        <v>2</v>
+      </c>
+      <c r="U7" s="27">
+        <v>2</v>
+      </c>
+      <c r="V7" s="28">
+        <v>4</v>
+      </c>
+      <c r="W7" s="29">
+        <v>0</v>
+      </c>
+      <c r="X7" s="30">
+        <v>3</v>
+      </c>
+      <c r="Y7" s="39">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="Z7" s="26">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB7" s="28">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="29">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="30">
+        <v>3</v>
+      </c>
+      <c r="AE7" s="2">
+        <f>SUM(Z7:AD7)</f>
+        <v>5</v>
+      </c>
+      <c r="AF7" s="2">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="B10" s="26"/>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A11" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="27"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A12" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="B12" s="28"/>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A13" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="B13" s="29"/>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A14" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="B14" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="T1:X1"/>
+    <mergeCell ref="Z1:AD1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1" display="https://mahara.dkit.ie/view/view.php?t=7lCmyveRgFJ1Dai5H8cL_x000a_" xr:uid="{C01C090C-27FE-45D7-B3FC-16489EC3CEAE}"/>
+    <hyperlink ref="C6" r:id="rId2" xr:uid="{3A83A31E-2EA3-4CE9-B8DE-E0FE964DE8E2}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{E6BF9F9C-B5B6-44BE-94E3-DB9715512DDC}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B4" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A7" sqref="A7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="101.7109375" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="101.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.7109375" style="9" customWidth="1"/>
     <col min="2" max="2" width="52.28515625" style="9" customWidth="1"/>
@@ -1924,121 +4420,121 @@
     <col min="9" max="16384" width="101.7109375" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>21</v>
+        <v>190</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>22</v>
+        <v>191</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>23</v>
+        <v>192</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>24</v>
+        <v>193</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>25</v>
+        <v>194</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>26</v>
+        <v>195</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="100.9">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>10</v>
+        <v>197</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>28</v>
+        <v>198</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>29</v>
+        <v>199</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>31</v>
+        <v>201</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>32</v>
+        <v>202</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>32</v>
+        <v>202</v>
       </c>
       <c r="H2" s="8">
         <f>SUM(4+4+4+3+3)</f>
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="86.45">
+    <row r="3" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>15</v>
+        <v>173</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>33</v>
+        <v>203</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>29</v>
+        <v>199</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>34</v>
+        <v>204</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>35</v>
+        <v>205</v>
       </c>
       <c r="H3" s="8">
         <f>SUM(4+4+4+3+3)</f>
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="57.6">
+    <row r="4" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>36</v>
+        <v>206</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>37</v>
+        <v>207</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>38</v>
+        <v>208</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>39</v>
+        <v>209</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>40</v>
+        <v>210</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>32</v>
+        <v>202</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>41</v>
+        <v>211</v>
       </c>
       <c r="H4" s="8">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="72">
+    <row r="5" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>42</v>
+        <v>212</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>29</v>
+        <v>199</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>43</v>
+        <v>213</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>44</v>
+        <v>214</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
@@ -2046,123 +4542,123 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="43.15">
+    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>45</v>
+        <v>215</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>32</v>
+        <v>202</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>46</v>
+        <v>216</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>47</v>
+        <v>217</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>48</v>
+        <v>218</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>32</v>
+        <v>202</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>49</v>
+        <v>219</v>
       </c>
       <c r="H6" s="8">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="144">
+    <row r="7" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>51</v>
+        <v>221</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>38</v>
+        <v>208</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>52</v>
+        <v>222</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>53</v>
+        <v>223</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>32</v>
+        <v>202</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>54</v>
+        <v>224</v>
       </c>
       <c r="H7" s="8">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="28.9">
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>55</v>
+        <v>225</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>56</v>
+        <v>226</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>57</v>
+        <v>227</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
       <c r="F8" s="8" t="s">
-        <v>32</v>
+        <v>202</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>58</v>
+        <v>228</v>
       </c>
       <c r="H8" s="8">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="43.15">
+    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>59</v>
+        <v>229</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>60</v>
+        <v>230</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>61</v>
+        <v>231</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>62</v>
+        <v>232</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>63</v>
+        <v>233</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>32</v>
+        <v>202</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>64</v>
+        <v>234</v>
       </c>
       <c r="H9" s="8">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="72.599999999999994" customHeight="1">
+    <row r="10" spans="1:8" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>65</v>
+        <v>235</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>66</v>
+        <v>236</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>29</v>
+        <v>199</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8" t="s">
-        <v>32</v>
+        <v>202</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>32</v>
+        <v>202</v>
       </c>
       <c r="H10" s="8">
         <v>7</v>
@@ -2177,112 +4673,373 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6EC2A0F-C127-42F6-9DBB-AB447FB6D65A}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="48.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.149999999999999" thickBot="1">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="4" t="s">
-        <v>67</v>
+        <v>237</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>68</v>
+        <v>238</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" ht="16.899999999999999" thickTop="1" thickBot="1">
+    <row r="2" spans="1:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>69</v>
+        <v>239</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>70</v>
+        <v>240</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" ht="15.6">
+        <v>241</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>72</v>
+        <v>243</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>73</v>
+        <v>244</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="16.149999999999999" thickBot="1">
+        <v>245</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>76</v>
+        <v>247</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>77</v>
+        <v>248</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" ht="16.149999999999999" thickBot="1">
+        <v>249</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>79</v>
+        <v>251</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>80</v>
+        <v>252</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" ht="31.15">
+        <v>253</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>82</v>
+        <v>255</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>83</v>
+        <v>256</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>257</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>257</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" xr:uid="{DAEA51A8-F681-43F9-AE76-A12816A4B1D2}"/>
     <hyperlink ref="D6" r:id="rId2" xr:uid="{9747C5C8-DCB4-4DC6-A43F-0F84267FBB96}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{4B227D50-E8D8-4786-A303-F06CB7F988C1}"/>
+    <hyperlink ref="D4" r:id="rId4" xr:uid="{D271E9C4-2E71-42A0-99BC-2E44472E2F6E}"/>
+    <hyperlink ref="D2" r:id="rId5" xr:uid="{3EDA990F-1F5E-498E-9154-E3B48F0A7EB0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100156FF96C31DBF24DAF47501DD4B1FA93" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d80976c5a72484eb1324fb749db590e6">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ca2a24de-5635-4937-ba3e-f585c5797c1b" xmlns:ns3="3e842fe1-b320-43ca-979d-23622b7f0734" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2304c4e38402c9f075c9ed497f38d133" ns2:_="" ns3:_="">
+    <xsd:import namespace="ca2a24de-5635-4937-ba3e-f585c5797c1b"/>
+    <xsd:import namespace="3e842fe1-b320-43ca-979d-23622b7f0734"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="ca2a24de-5635-4937-ba3e-f585c5797c1b" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="3e842fe1-b320-43ca-979d-23622b7f0734" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71468F45-CC57-452E-A22C-400BE6CF7237}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="ca2a24de-5635-4937-ba3e-f585c5797c1b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3e842fe1-b320-43ca-979d-23622b7f0734"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99CFD55E-C88A-4E43-853B-366B2553ACF5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61A1F6B7-A0BD-40CE-9831-EE35BFF6CACC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ca2a24de-5635-4937-ba3e-f585c5797c1b"/>
+    <ds:schemaRef ds:uri="3e842fe1-b320-43ca-979d-23622b7f0734"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>